--- a/regions/5/soflis meurneoba/1. erttsliani kulturebi.xlsx
+++ b/regions/5/soflis meurneoba/1. erttsliani kulturebi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\სამცხე-ჯავახეთი\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\სამცხე-ჯავახეთი\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="19">
   <si>
     <t>ხორბალი</t>
   </si>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -184,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,15 +202,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -250,10 +241,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -261,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,28 +570,30 @@
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -652,8 +645,14 @@
       <c r="Q2" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -705,8 +704,14 @@
       <c r="Q3" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -758,8 +763,14 @@
       <c r="Q4" s="3">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R4" s="4">
+        <v>2</v>
+      </c>
+      <c r="S4" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -811,8 +822,14 @@
       <c r="Q5" s="4">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R5" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="S5" s="4">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -864,8 +881,14 @@
       <c r="Q6" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="S6" s="4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -917,8 +940,14 @@
       <c r="Q7" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R7" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -970,8 +999,14 @@
       <c r="Q8" s="4">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R8" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="S8" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1023,8 +1058,14 @@
       <c r="Q9" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="S9" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -1076,8 +1117,14 @@
       <c r="Q10" s="4">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="S10" s="4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
@@ -1129,8 +1176,14 @@
       <c r="Q11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="S11" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -1182,8 +1235,14 @@
       <c r="Q12" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1235,8 +1294,14 @@
       <c r="Q13" s="4">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
@@ -1288,8 +1353,14 @@
       <c r="Q14" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1341,8 +1412,14 @@
       <c r="Q15" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
@@ -1394,8 +1471,14 @@
       <c r="Q16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="S16" s="4">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -1447,8 +1530,14 @@
       <c r="Q17" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S17" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1500,8 +1589,14 @@
       <c r="Q18" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -1553,8 +1648,14 @@
       <c r="Q19" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R19" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
@@ -1606,8 +1707,14 @@
       <c r="Q20" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
@@ -1659,8 +1766,14 @@
       <c r="Q21" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R21" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>7</v>
       </c>
@@ -1712,8 +1825,14 @@
       <c r="Q22" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R22" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S22" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1765,8 +1884,14 @@
       <c r="Q23" s="4">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R23" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="S23" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
@@ -1818,8 +1943,14 @@
       <c r="Q24" s="4">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R24" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="S24" s="4">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>4</v>
       </c>
@@ -1871,8 +2002,14 @@
       <c r="Q25" s="4">
         <v>154.19999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R25" s="4">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="S25" s="4">
+        <v>129.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
@@ -1924,8 +2061,14 @@
       <c r="Q26" s="4">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R26" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="S26" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>8</v>
       </c>
@@ -1977,8 +2120,14 @@
       <c r="Q27" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R27" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S27" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2030,8 +2179,14 @@
       <c r="Q28" s="4">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R28" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="S28" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>14</v>
       </c>
@@ -2083,8 +2238,14 @@
       <c r="Q29" s="4">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>4</v>
       </c>
@@ -2136,8 +2297,14 @@
       <c r="Q30" s="4">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R30" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S30" s="4">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>2</v>
       </c>
@@ -2189,8 +2356,14 @@
       <c r="Q31" s="4">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R31" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="S31" s="4">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
@@ -2242,8 +2415,14 @@
       <c r="Q32" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R32" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S32" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -2295,8 +2474,12 @@
       <c r="Q33" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>14</v>
       </c>
@@ -2348,8 +2531,12 @@
       <c r="Q34" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>4</v>
       </c>
@@ -2401,8 +2588,12 @@
       <c r="Q35" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
@@ -2454,8 +2645,12 @@
       <c r="Q36" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S36" s="3"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
@@ -2507,8 +2702,14 @@
       <c r="Q37" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R37" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S37" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -2560,8 +2761,14 @@
       <c r="Q38" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R38" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="S38" s="4">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>14</v>
       </c>
@@ -2613,8 +2820,14 @@
       <c r="Q39" s="4">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R39" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="S39" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>4</v>
       </c>
@@ -2666,8 +2879,14 @@
       <c r="Q40" s="4">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R40" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="S40" s="4">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
@@ -2719,8 +2938,14 @@
       <c r="Q41" s="4">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R41" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S41" s="4">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
@@ -2772,8 +2997,14 @@
       <c r="Q42" s="2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R42" s="2">
+        <v>2022</v>
+      </c>
+      <c r="S42" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>13</v>
       </c>
@@ -2825,8 +3056,14 @@
       <c r="Q43" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R43" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S43" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>14</v>
       </c>
@@ -2878,8 +3115,14 @@
       <c r="Q44" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>4</v>
       </c>
@@ -2931,8 +3174,14 @@
       <c r="Q45" s="4">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R45" s="4">
+        <v>2</v>
+      </c>
+      <c r="S45" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>2</v>
       </c>
@@ -2984,76 +3233,82 @@
       <c r="Q46" s="4">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="R46" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="S46" s="4">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-    </row>
-    <row r="48" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
     </row>
     <row r="49" spans="1:17" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A47:Q47"/>
     <mergeCell ref="A48:Q48"/>
     <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
